--- a/problem_file_generator/problem.xlsx
+++ b/problem_file_generator/problem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickit/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengwenyu/Documents/Computer_Science_KCL/Year2/INT/INT-Coursework-2021/problem_file_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70862C76-7D9B-E947-8143-EBC76C1E5D28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7123AC62-4060-D346-92EA-A68DFE32A142}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="580" windowWidth="25640" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="25640" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -111,17 +111,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -129,7 +129,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -138,7 +138,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -147,7 +147,7 @@
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -242,9 +242,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -296,8 +296,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -319,524 +319,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1118,17 +600,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A87EFE-6CF6-4A41-ADBE-4A3D590810E7}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="5" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1144,36 +626,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1191,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1218,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1227,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1245,7 +727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
     </row>
   </sheetData>
@@ -1276,117 +758,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E787929-AF6B-4433-9265-CE7BC92EC712}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="24" max="24" width="4.5" customWidth="1"/>
     <col min="30" max="30" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
-      <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="B1">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1">
         <v>1</v>
       </c>
       <c r="G1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>2</v>
       </c>
@@ -1394,67 +837,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
-      <c r="A7">
-        <v>1</v>
-      </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1486,39 +929,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="17" priority="6">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>

--- a/problem_file_generator/problem.xlsx
+++ b/problem_file_generator/problem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinfan/Desktop/INT/INT-Coursework-2021/problem_file_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA21BE9F-09F4-024E-9EBA-9A15FE66EA40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22073A65-87B6-C048-A72D-0B5B740C2400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39020" yWindow="0" windowWidth="25640" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39020" yWindow="0" windowWidth="25640" windowHeight="19660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A87EFE-6CF6-4A41-ADBE-4A3D590810E7}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -607,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -748,10 +748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E787929-AF6B-4433-9265-CE7BC92EC712}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -761,7 +761,7 @@
     <col min="30" max="30" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -777,134 +777,80 @@
       <c r="E1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
         <v>1</v>
       </c>
     </row>

--- a/problem_file_generator/problem.xlsx
+++ b/problem_file_generator/problem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinfan/Desktop/INT/INT-Coursework-2021/problem_file_generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuoy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22073A65-87B6-C048-A72D-0B5B740C2400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B33F272-6B43-4AE7-9E92-528F26DDAEF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39020" yWindow="0" windowWidth="25640" windowHeight="19660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12096" yWindow="1188" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">problem!$A$1:$AC$30</definedName>
+    <definedName name="A">problem!$XDD$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,32 +594,32 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="25.8"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="26.77734375" style="5" customWidth="1"/>
+    <col min="2" max="5" width="10.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -626,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -634,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -642,12 +643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -656,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -665,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -674,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -683,7 +684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -692,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -701,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -710,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -719,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -728,7 +729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -737,7 +738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="11"/>
     </row>
   </sheetData>
@@ -748,28 +749,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E787929-AF6B-4433-9265-CE7BC92EC712}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="24" max="24" width="4.5" customWidth="1"/>
-    <col min="30" max="30" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="24" customHeight="1">
       <c r="A1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -780,9 +781,27 @@
       <c r="F1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
       <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
@@ -791,19 +810,46 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -811,47 +857,315 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/problem_file_generator/problem.xlsx
+++ b/problem_file_generator/problem.xlsx
@@ -8,16 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuoy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B549A2-CEE8-4F51-AA0D-8337B8174754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B679DA-3E97-4BA3-B96F-DA48711516DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="3144" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="problem" sheetId="3" r:id="rId2"/>
+    <sheet name="p69steps" sheetId="3" r:id="rId2"/>
+    <sheet name="p7steps" sheetId="6" r:id="rId3"/>
+    <sheet name="p41steps" sheetId="7" r:id="rId4"/>
+    <sheet name="p33steps" sheetId="8" r:id="rId5"/>
+    <sheet name="p25steps" sheetId="9" r:id="rId6"/>
+    <sheet name="p100steps" sheetId="10" r:id="rId7"/>
+    <sheet name="p119steps" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">problem!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">p100steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">p119steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">p25steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">p33steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">p41steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p69steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">p7steps!$A$1:$AC$30</definedName>
+    <definedName name="A" localSheetId="6">p100steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="7">p119steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="5">p25steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="4">p33steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="3">p41steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="2">p7steps!$XDD$9</definedName>
+    <definedName name="A">p69steps!$XDD$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="29">
   <si>
     <t>Wall</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +116,42 @@
   <si>
     <t>0或空</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>7 cols</t>
+  </si>
+  <si>
+    <t>4 rows</t>
+  </si>
+  <si>
+    <t>5 cols</t>
+  </si>
+  <si>
+    <t>5 rows</t>
+  </si>
+  <si>
+    <t>9 cols</t>
+  </si>
+  <si>
+    <t>14 rows</t>
+  </si>
+  <si>
+    <t>6 cols</t>
+  </si>
+  <si>
+    <t>6 rows</t>
+  </si>
+  <si>
+    <t>7 rows</t>
+  </si>
+  <si>
+    <t>8 cols</t>
   </si>
 </sst>
 </file>
@@ -236,7 +291,469 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -592,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A87EFE-6CF6-4A41-ADBE-4A3D590810E7}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="25.8"/>
@@ -607,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -615,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -623,7 +1140,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -748,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E787929-AF6B-4433-9265-CE7BC92EC712}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
@@ -761,27 +1278,1903 @@
     <col min="30" max="30" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1">
+    <row r="1" spans="1:11" ht="24" customHeight="1">
       <c r="A1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24" customHeight="1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24" customHeight="1">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24" customHeight="1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24" customHeight="1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24" customHeight="1">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24" customHeight="1">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24" customHeight="1">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24" customHeight="1">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="70" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843EA9E7-243A-4D4A-92DC-DF667758F18C}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" customHeight="1">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="59" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E300F2B5-44F8-43EF-8B9D-57E2DCAC9FBF}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="48" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB86B738-3550-4DD4-8233-98BC8BEAA9D7}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="37" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DD75B-A8D3-4628-B0E1-EFFFD147E32F}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -800,8 +3193,20 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -820,8 +3225,20 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1">
       <c r="A4">
         <v>0</v>
       </c>
@@ -840,8 +3257,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
       <c r="A5">
         <v>0</v>
       </c>
@@ -860,9 +3286,1238 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8512A1B1-1679-46C2-A95E-461F4D808028}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="15" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA56F1A-09F4-4338-9C69-419701701940}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <conditionalFormatting sqref="A1:AD30">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>

--- a/problem_file_generator/problem.xlsx
+++ b/problem_file_generator/problem.xlsx
@@ -8,17 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuoy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B33F272-6B43-4AE7-9E92-528F26DDAEF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B679DA-3E97-4BA3-B96F-DA48711516DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12096" yWindow="1188" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="problem" sheetId="3" r:id="rId2"/>
+    <sheet name="p69steps" sheetId="3" r:id="rId2"/>
+    <sheet name="p7steps" sheetId="6" r:id="rId3"/>
+    <sheet name="p41steps" sheetId="7" r:id="rId4"/>
+    <sheet name="p33steps" sheetId="8" r:id="rId5"/>
+    <sheet name="p25steps" sheetId="9" r:id="rId6"/>
+    <sheet name="p100steps" sheetId="10" r:id="rId7"/>
+    <sheet name="p119steps" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">problem!$A$1:$AC$30</definedName>
-    <definedName name="A">problem!$XDD$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">p100steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">p119steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">p25steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">p33steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">p41steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p69steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">p7steps!$A$1:$AC$30</definedName>
+    <definedName name="A" localSheetId="6">p100steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="7">p119steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="5">p25steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="4">p33steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="3">p41steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="2">p7steps!$XDD$9</definedName>
+    <definedName name="A">p69steps!$XDD$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="29">
   <si>
     <t>Wall</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +116,42 @@
   <si>
     <t>0或空</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>7 cols</t>
+  </si>
+  <si>
+    <t>4 rows</t>
+  </si>
+  <si>
+    <t>5 cols</t>
+  </si>
+  <si>
+    <t>5 rows</t>
+  </si>
+  <si>
+    <t>9 cols</t>
+  </si>
+  <si>
+    <t>14 rows</t>
+  </si>
+  <si>
+    <t>6 cols</t>
+  </si>
+  <si>
+    <t>6 rows</t>
+  </si>
+  <si>
+    <t>7 rows</t>
+  </si>
+  <si>
+    <t>8 cols</t>
   </si>
 </sst>
 </file>
@@ -237,7 +291,469 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -593,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A87EFE-6CF6-4A41-ADBE-4A3D590810E7}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="25.8"/>
@@ -624,7 +1140,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -749,10 +1265,481 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E787929-AF6B-4433-9265-CE7BC92EC712}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24" customHeight="1">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24" customHeight="1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24" customHeight="1">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24" customHeight="1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24" customHeight="1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24" customHeight="1">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24" customHeight="1">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24" customHeight="1">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24" customHeight="1">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="70" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843EA9E7-243A-4D4A-92DC-DF667758F18C}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
@@ -767,100 +1754,1502 @@
         <v>3</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>3</v>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1">
+      <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="59" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E300F2B5-44F8-43EF-8B9D-57E2DCAC9FBF}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="48" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB86B738-3550-4DD4-8233-98BC8BEAA9D7}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="37" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DD75B-A8D3-4628-B0E1-EFFFD147E32F}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -868,19 +3257,502 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8512A1B1-1679-46C2-A95E-461F4D808028}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -898,24 +3770,27 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -924,19 +3799,493 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="15" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA56F1A-09F4-4338-9C69-419701701940}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
       <c r="A7">
         <v>1</v>
       </c>
@@ -944,232 +4293,231 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>

--- a/problem_file_generator/problem.xlsx
+++ b/problem_file_generator/problem.xlsx
@@ -8,34 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuoy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B679DA-3E97-4BA3-B96F-DA48711516DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D1FAE2-FAC9-443B-8B15-942A5560499A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12828" yWindow="2628" windowWidth="17280" windowHeight="8964" tabRatio="619" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="p69steps" sheetId="3" r:id="rId2"/>
-    <sheet name="p7steps" sheetId="6" r:id="rId3"/>
-    <sheet name="p41steps" sheetId="7" r:id="rId4"/>
+    <sheet name="p41steps" sheetId="7" r:id="rId3"/>
+    <sheet name="p7steps" sheetId="6" r:id="rId4"/>
     <sheet name="p33steps" sheetId="8" r:id="rId5"/>
     <sheet name="p25steps" sheetId="9" r:id="rId6"/>
-    <sheet name="p100steps" sheetId="10" r:id="rId7"/>
+    <sheet name="p117steps" sheetId="10" r:id="rId7"/>
     <sheet name="p119steps" sheetId="11" r:id="rId8"/>
+    <sheet name="p100steps" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">p100steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">p100steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">p117steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">p119steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">p25steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">p33steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">p41steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">p41steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p69steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">p7steps!$A$1:$AC$30</definedName>
-    <definedName name="A" localSheetId="6">p100steps!$XDD$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">p7steps!$A$1:$AC$30</definedName>
+    <definedName name="A" localSheetId="8">p100steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="6">p117steps!$XDD$9</definedName>
     <definedName name="A" localSheetId="7">p119steps!$XDD$9</definedName>
     <definedName name="A" localSheetId="5">p25steps!$XDD$9</definedName>
     <definedName name="A" localSheetId="4">p33steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="3">p41steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="2">p7steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="2">p41steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="3">p7steps!$XDD$9</definedName>
     <definedName name="A">p69steps!$XDD$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="29">
   <si>
     <t>Wall</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,7 +294,84 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="88">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1267,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E787929-AF6B-4433-9265-CE7BC92EC712}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1693,39 +1773,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="70" priority="6">
+    <cfRule type="containsBlanks" dxfId="81" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1735,470 +1815,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843EA9E7-243A-4D4A-92DC-DF667758F18C}">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
-      <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="59" priority="6">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E300F2B5-44F8-43EF-8B9D-57E2DCAC9FBF}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -2617,39 +2233,503 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="48" priority="6">
+    <cfRule type="containsBlanks" dxfId="59" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843EA9E7-243A-4D4A-92DC-DF667758F18C}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" customHeight="1">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="70" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3088,39 +3168,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="37" priority="6">
+    <cfRule type="containsBlanks" dxfId="48" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3559,39 +3639,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="6">
+    <cfRule type="containsBlanks" dxfId="37" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3604,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8512A1B1-1679-46C2-A95E-461F4D808028}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
@@ -3715,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1">
@@ -3726,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4048,39 +4128,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="15" priority="6">
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4093,7 +4173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA56F1A-09F4-4338-9C69-419701701940}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -4519,6 +4599,495 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="15" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F14E13-D2F5-48B0-87D4-57165611BEFC}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/problem_file_generator/problem.xlsx
+++ b/problem_file_generator/problem.xlsx
@@ -1,44 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuoy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinfan/Desktop/INT/INT-Coursework-2021/problem_file_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D1FAE2-FAC9-443B-8B15-942A5560499A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AA2E31-E82A-DD46-955D-B4E7A91C97B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12828" yWindow="2628" windowWidth="17280" windowHeight="8964" tabRatio="619" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33080" yWindow="2260" windowWidth="24880" windowHeight="16200" tabRatio="619" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="p69steps" sheetId="3" r:id="rId2"/>
-    <sheet name="p41steps" sheetId="7" r:id="rId3"/>
-    <sheet name="p7steps" sheetId="6" r:id="rId4"/>
-    <sheet name="p33steps" sheetId="8" r:id="rId5"/>
-    <sheet name="p25steps" sheetId="9" r:id="rId6"/>
-    <sheet name="p117steps" sheetId="10" r:id="rId7"/>
-    <sheet name="p119steps" sheetId="11" r:id="rId8"/>
-    <sheet name="p100steps" sheetId="12" r:id="rId9"/>
+    <sheet name="problem" sheetId="14" r:id="rId3"/>
+    <sheet name="p41steps" sheetId="7" r:id="rId4"/>
+    <sheet name="p7steps" sheetId="6" r:id="rId5"/>
+    <sheet name="p33steps" sheetId="8" r:id="rId6"/>
+    <sheet name="p25steps" sheetId="9" r:id="rId7"/>
+    <sheet name="p117steps" sheetId="10" r:id="rId8"/>
+    <sheet name="p119steps" sheetId="11" r:id="rId9"/>
+    <sheet name="p100steps" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">p100steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">p117steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">p119steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">p25steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">p33steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">p41steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">p100steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">p117steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">p119steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">p25steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">p33steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">p41steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p69steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">p7steps!$A$1:$AC$30</definedName>
-    <definedName name="A" localSheetId="8">p100steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="6">p117steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="7">p119steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="5">p25steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="4">p33steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="2">p41steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="3">p7steps!$XDD$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">p7steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">problem!$A$1:$AC$30</definedName>
+    <definedName name="A" localSheetId="9">p100steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="7">p117steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="8">p119steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="6">p25steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="5">p33steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="3">p41steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="4">p7steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="2">problem!$XDD$9</definedName>
     <definedName name="A">p69steps!$XDD$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="29">
   <si>
     <t>Wall</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,7 +297,84 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="99">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1190,16 +1270,16 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="25.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="5" customWidth="1"/>
-    <col min="2" max="5" width="10.77734375" style="5"/>
+    <col min="1" max="1" width="26.83203125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1207,23 +1287,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1239,12 +1319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1298,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1316,7 +1396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1334,12 +1414,501 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F14E13-D2F5-48B0-87D4-57165611BEFC}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1347,18 +1916,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E787929-AF6B-4433-9265-CE7BC92EC712}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A3" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1387,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1">
+    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1416,7 +1985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="24" customHeight="1">
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1448,7 +2017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1">
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1480,7 +2049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1">
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1509,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1">
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1538,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1">
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1567,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24" customHeight="1">
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1596,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24" customHeight="1">
+    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1625,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24" customHeight="1">
+    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1654,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24" customHeight="1">
+    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1683,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24" customHeight="1">
+    <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1712,7 +2281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="24" customHeight="1">
+    <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1741,7 +2310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24" customHeight="1">
+    <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1815,6 +2384,409 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C6CB5C-BFBC-9942-A609-8D05D66518E6}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="98" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="92" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E300F2B5-44F8-43EF-8B9D-57E2DCAC9FBF}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -1822,16 +2794,16 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1857,7 +2829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1886,7 +2858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1915,7 +2887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1">
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1941,7 +2913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1970,7 +2942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1">
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1999,7 +2971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1">
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2028,7 +3000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2057,7 +3029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2086,7 +3058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2115,7 +3087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2144,7 +3116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1">
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2173,7 +3145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1">
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2202,7 +3174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1">
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2233,39 +3205,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="59" priority="6">
+    <cfRule type="containsBlanks" dxfId="70" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2274,7 +3246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843EA9E7-243A-4D4A-92DC-DF667758F18C}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -2282,14 +3254,14 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>3</v>
       </c>
@@ -2318,7 +3290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1">
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2347,7 +3319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2376,7 +3348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2405,7 +3377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2434,7 +3406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2463,7 +3435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2492,7 +3464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +3493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2550,7 +3522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2579,7 +3551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2608,7 +3580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2637,7 +3609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2666,7 +3638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2697,39 +3669,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="70" priority="6">
+    <cfRule type="containsBlanks" dxfId="59" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2738,7 +3710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB86B738-3550-4DD4-8233-98BC8BEAA9D7}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -2746,15 +3718,15 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2783,7 +3755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2815,7 +3787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2847,7 +3819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1">
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2876,7 +3848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2905,7 +3877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1">
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2934,7 +3906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1">
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2963,7 +3935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2992,7 +3964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3021,7 +3993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3050,7 +4022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3079,7 +4051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1">
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3108,7 +4080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1">
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3137,7 +4109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1">
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3209,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DD75B-A8D3-4628-B0E1-EFFFD147E32F}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -3217,15 +4189,15 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3254,7 +4226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3286,7 +4258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3318,7 +4290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1">
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3347,7 +4319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3376,7 +4348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1">
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3405,7 +4377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1">
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3434,7 +4406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3463,7 +4435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3492,7 +4464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3521,7 +4493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3550,7 +4522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1">
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3579,7 +4551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1">
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3608,7 +4580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1">
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3672,495 +4644,6 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8512A1B1-1679-46C2-A95E-461F4D808028}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.109375" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="24" customHeight="1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24" customHeight="1">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="24" customHeight="1">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="24" customHeight="1">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24" customHeight="1">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="24" customHeight="1">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="24" customHeight="1">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24" customHeight="1">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="6">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4170,6 +4653,495 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8512A1B1-1679-46C2-A95E-461F4D808028}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA56F1A-09F4-4338-9C69-419701701940}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -4177,15 +5149,15 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4214,7 +5186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4246,7 +5218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4278,7 +5250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1">
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4307,7 +5279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4336,7 +5308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1">
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4365,7 +5337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1">
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4394,7 +5366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4423,7 +5395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4452,7 +5424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4481,7 +5453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4510,7 +5482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1">
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4539,7 +5511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1">
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +5540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1">
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4632,495 +5604,6 @@
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F14E13-D2F5-48B0-87D4-57165611BEFC}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="24" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.109375" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="30" max="30" width="5.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="24" customHeight="1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24" customHeight="1">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="24" customHeight="1">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="24" customHeight="1">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24" customHeight="1">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="24" customHeight="1">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="24" customHeight="1">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24" customHeight="1">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/problem_file_generator/problem.xlsx
+++ b/problem_file_generator/problem.xlsx
@@ -8,40 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinfan/Desktop/INT/INT-Coursework-2021/problem_file_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AA2E31-E82A-DD46-955D-B4E7A91C97B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77C53D-4288-4D46-8954-599C823ADDBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33080" yWindow="2260" windowWidth="24880" windowHeight="16200" tabRatio="619" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33080" yWindow="2260" windowWidth="24880" windowHeight="16200" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="p69steps" sheetId="3" r:id="rId2"/>
-    <sheet name="problem" sheetId="14" r:id="rId3"/>
-    <sheet name="p41steps" sheetId="7" r:id="rId4"/>
-    <sheet name="p7steps" sheetId="6" r:id="rId5"/>
-    <sheet name="p33steps" sheetId="8" r:id="rId6"/>
-    <sheet name="p25steps" sheetId="9" r:id="rId7"/>
-    <sheet name="p117steps" sheetId="10" r:id="rId8"/>
-    <sheet name="p119steps" sheetId="11" r:id="rId9"/>
-    <sheet name="p100steps" sheetId="12" r:id="rId10"/>
+    <sheet name="p169steps" sheetId="14" r:id="rId3"/>
+    <sheet name="p169Tools" sheetId="16" r:id="rId4"/>
+    <sheet name="p41steps" sheetId="7" r:id="rId5"/>
+    <sheet name="p7steps" sheetId="6" r:id="rId6"/>
+    <sheet name="p33steps" sheetId="8" r:id="rId7"/>
+    <sheet name="p25steps" sheetId="9" r:id="rId8"/>
+    <sheet name="p117steps" sheetId="10" r:id="rId9"/>
+    <sheet name="p119steps" sheetId="11" r:id="rId10"/>
+    <sheet name="p100steps" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">p100steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">p117steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">p119steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">p25steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">p33steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">p41steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">p100steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">p117steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">p119steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">p169steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">p169Tools!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">p25steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">p33steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">p41steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p69steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">p7steps!$A$1:$AC$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">problem!$A$1:$AC$30</definedName>
-    <definedName name="A" localSheetId="9">p100steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="7">p117steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="8">p119steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="6">p25steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="5">p33steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="3">p41steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="4">p7steps!$XDD$9</definedName>
-    <definedName name="A" localSheetId="2">problem!$XDD$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">p7steps!$A$1:$AC$30</definedName>
+    <definedName name="A" localSheetId="10">p100steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="8">p117steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="9">p119steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="2">p169steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="3">p169Tools!$XDD$9</definedName>
+    <definedName name="A" localSheetId="7">p25steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="6">p33steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="4">p41steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="5">p7steps!$XDD$9</definedName>
     <definedName name="A">p69steps!$XDD$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="29">
   <si>
     <t>Wall</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,7 +300,84 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="110">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1269,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A87EFE-6CF6-4A41-ADBE-4A3D590810E7}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -1424,6 +1504,477 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA56F1A-09F4-4338-9C69-419701701940}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F14E13-D2F5-48B0-87D4-57165611BEFC}">
   <dimension ref="A1:L14"/>
   <sheetViews>
@@ -1871,39 +2422,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="15" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2342,39 +2893,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="87" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="81" priority="6">
+    <cfRule type="containsBlanks" dxfId="103" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2387,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C6CB5C-BFBC-9942-A609-8D05D66518E6}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2787,6 +3338,424 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED5F79-A7D9-6244-AAB6-31D53B69ADD4}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E300F2B5-44F8-43EF-8B9D-57E2DCAC9FBF}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -3205,39 +4174,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="70" priority="6">
+    <cfRule type="containsBlanks" dxfId="81" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3246,7 +4215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843EA9E7-243A-4D4A-92DC-DF667758F18C}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -3669,39 +4638,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="59" priority="6">
+    <cfRule type="containsBlanks" dxfId="70" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3710,7 +4679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB86B738-3550-4DD4-8233-98BC8BEAA9D7}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -4140,39 +5109,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="48" priority="6">
+    <cfRule type="containsBlanks" dxfId="59" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4181,7 +5150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DD75B-A8D3-4628-B0E1-EFFFD147E32F}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -4611,39 +5580,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="37" priority="6">
+    <cfRule type="containsBlanks" dxfId="48" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4652,7 +5621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8512A1B1-1679-46C2-A95E-461F4D808028}">
   <dimension ref="A1:L14"/>
   <sheetViews>
@@ -5100,510 +6069,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="6">
+    <cfRule type="containsBlanks" dxfId="37" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA56F1A-09F4-4338-9C69-419701701940}">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="24" max="24" width="4.5" customWidth="1"/>
-    <col min="30" max="30" width="5.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="15" priority="6">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/problem_file_generator/problem.xlsx
+++ b/problem_file_generator/problem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinfan/Desktop/INT/INT-Coursework-2021/problem_file_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77C53D-4288-4D46-8954-599C823ADDBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA700F13-F882-594D-B54B-FE9102375810}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33080" yWindow="2260" windowWidth="24880" windowHeight="16200" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33080" yWindow="2260" windowWidth="24880" windowHeight="16200" tabRatio="619" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1349,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A87EFE-6CF6-4A41-ADBE-4A3D590810E7}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2938,7 +2938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C6CB5C-BFBC-9942-A609-8D05D66518E6}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/problem_file_generator/problem.xlsx
+++ b/problem_file_generator/problem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickit/Desktop/INT-Coursework-2021/problem_file_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD63C413-6CF5-C241-A22D-E8E370A8AE11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101CDDF2-1E8D-7D41-8F11-F3D74E8EAE74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="500" windowWidth="19660" windowHeight="20680" tabRatio="619" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="500" windowWidth="19660" windowHeight="20680" tabRatio="619" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,11 @@
     <sheet name="p100steps" sheetId="12" r:id="rId11"/>
     <sheet name="p195steps" sheetId="17" r:id="rId12"/>
     <sheet name="p201steps" sheetId="18" r:id="rId13"/>
+    <sheet name="p212steps " sheetId="19" r:id="rId14"/>
+    <sheet name="p233steps " sheetId="21" r:id="rId15"/>
+    <sheet name="p282steps" sheetId="24" r:id="rId16"/>
+    <sheet name="p335steps" sheetId="25" r:id="rId17"/>
+    <sheet name="p429steps" sheetId="26" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">p100steps!$A$1:$AC$30</definedName>
@@ -35,9 +40,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">p169Tools!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">p195steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">p201steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'p212steps '!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'p233steps '!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">p25steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">p282steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">p335steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">p33steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">p41steps!$A$1:$AC$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">p429steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p69steps!$A$1:$AC$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">p7steps!$A$1:$AC$30</definedName>
     <definedName name="A" localSheetId="10">p100steps!$XDD$9</definedName>
@@ -47,9 +57,14 @@
     <definedName name="A" localSheetId="3">p169Tools!$XDD$9</definedName>
     <definedName name="A" localSheetId="11">p195steps!$XDD$9</definedName>
     <definedName name="A" localSheetId="12">p201steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="13">'p212steps '!$XDD$9</definedName>
+    <definedName name="A" localSheetId="14">'p233steps '!$XDD$9</definedName>
     <definedName name="A" localSheetId="7">p25steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="15">p282steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="16">p335steps!$XDD$9</definedName>
     <definedName name="A" localSheetId="6">p33steps!$XDD$9</definedName>
     <definedName name="A" localSheetId="4">p41steps!$XDD$9</definedName>
+    <definedName name="A" localSheetId="17">p429steps!$XDD$9</definedName>
     <definedName name="A" localSheetId="5">p7steps!$XDD$9</definedName>
     <definedName name="A">p69steps!$XDD$9</definedName>
   </definedNames>
@@ -231,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +307,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF203764"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -305,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -318,11 +363,1249 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="165">
+  <dxfs count="341">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2341,39 +3624,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="70" priority="6">
+    <cfRule type="containsBlanks" dxfId="246" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2831,39 +4114,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="59" priority="6">
+    <cfRule type="containsBlanks" dxfId="235" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3112,76 +4395,76 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A13:AD30 L1:AD12">
-    <cfRule type="cellIs" dxfId="54" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:AD30 L1:AD12">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="48" priority="17">
+    <cfRule type="containsBlanks" dxfId="224" priority="17">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:K12">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:K12">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="37" priority="6">
+    <cfRule type="containsBlanks" dxfId="213" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3194,7 +4477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E871CD36-8E03-A445-8DA2-7C43EE3E7A30}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -3489,48 +4772,3766 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A13:AD30 L11:AD12 M1:AD10">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:AD30 L11:AD12 M1:AD10">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="23" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="24" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="25" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="26" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="27" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="28">
+    <cfRule type="containsBlanks" dxfId="202" priority="28">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="31" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:K12">
+    <cfRule type="cellIs" dxfId="197" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:K12">
+    <cfRule type="cellIs" dxfId="196" priority="12" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="13" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="14" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="15" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="16" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="191" priority="17">
+      <formula>LEN(TRIM(A11))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="18" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="21" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:L10">
+    <cfRule type="cellIs" dxfId="186" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:L10">
+    <cfRule type="cellIs" dxfId="185" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="180" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB2AA90-9D51-6541-AD4E-656F9EE60E10}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A16:AD30 L11:AD12 M1:AD10 J13:AD15">
+    <cfRule type="cellIs" dxfId="175" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:AD30 L11:AD12 M1:AD10 J13:AD15">
+    <cfRule type="cellIs" dxfId="174" priority="34" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="35" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="36" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="37" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="38" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="169" priority="39">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="40" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="42" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:K12">
+    <cfRule type="cellIs" dxfId="164" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:K12">
+    <cfRule type="cellIs" dxfId="163" priority="23" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="24" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="25" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="26" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="27" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="158" priority="28">
+      <formula>LEN(TRIM(J11))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="29" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="30" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="31" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="32" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:L10">
+    <cfRule type="cellIs" dxfId="153" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:L10">
+    <cfRule type="cellIs" dxfId="152" priority="12" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="13" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="14" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="15" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="16" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="147" priority="17">
+      <formula>LEN(TRIM(J1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="18" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="21" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:I15">
+    <cfRule type="cellIs" dxfId="142" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:I15">
+    <cfRule type="cellIs" dxfId="141" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="136" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A3C382-D40A-C340-8AFE-AD26D9C3AA3C}">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24" customHeight="1">
+      <c r="A1" s="12">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12">
+        <v>1</v>
+      </c>
+      <c r="I1" s="12">
+        <v>1</v>
+      </c>
+      <c r="J1" s="12">
+        <v>1</v>
+      </c>
+      <c r="K1" s="12">
+        <v>1</v>
+      </c>
+      <c r="L1" s="13">
+        <v>3</v>
+      </c>
+      <c r="M1" s="13">
+        <v>3</v>
+      </c>
+      <c r="N1" s="13">
+        <v>3</v>
+      </c>
+      <c r="O1" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="12">
+        <v>1</v>
+      </c>
+      <c r="M2" s="13">
+        <v>3</v>
+      </c>
+      <c r="N2" s="13">
+        <v>3</v>
+      </c>
+      <c r="O2" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="12">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <v>3</v>
+      </c>
+      <c r="O3" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="24" customHeight="1">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24" customHeight="1">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16">
+        <v>4</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="17">
+        <v>6</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15">
+        <v>5</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A16:AD30 L11:AD12 M10:AD10 J13:AD15 P1:AD9">
+    <cfRule type="cellIs" dxfId="131" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:AD30 L11:AD12 M10:AD10 J13:AD15 P1:AD9">
+    <cfRule type="cellIs" dxfId="130" priority="34" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="35" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="36" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="37" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="38" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="125" priority="39">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="40" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="42" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:K12">
+    <cfRule type="cellIs" dxfId="120" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:K12">
+    <cfRule type="cellIs" dxfId="119" priority="23" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="24" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="25" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="26" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="27" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="114" priority="28">
+      <formula>LEN(TRIM(J11))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="29" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="30" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="31" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="32" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:L10">
+    <cfRule type="cellIs" dxfId="109" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:L10">
+    <cfRule type="cellIs" dxfId="108" priority="12" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="14" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="15" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="16" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="103" priority="17">
+      <formula>LEN(TRIM(J10))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="18" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="21" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:I15">
+    <cfRule type="cellIs" dxfId="98" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:I15">
+    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="92" priority="6">
+      <formula>LEN(TRIM(A10))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352D893E-150D-4047-8484-E403FFABE96E}">
+  <dimension ref="A1:AD17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection sqref="A1:AD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="24" customHeight="1">
+      <c r="A1" s="13">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12">
+        <v>1</v>
+      </c>
+      <c r="I1" s="12">
+        <v>1</v>
+      </c>
+      <c r="J1" s="12">
+        <v>1</v>
+      </c>
+      <c r="K1" s="13">
+        <v>3</v>
+      </c>
+      <c r="L1" s="13">
+        <v>3</v>
+      </c>
+      <c r="M1" s="13">
+        <v>3</v>
+      </c>
+      <c r="N1" s="13">
+        <v>3</v>
+      </c>
+      <c r="O1" s="13">
+        <v>3</v>
+      </c>
+      <c r="P1" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="13">
+        <v>3</v>
+      </c>
+      <c r="R1" s="13">
+        <v>3</v>
+      </c>
+      <c r="S1" s="13">
+        <v>3</v>
+      </c>
+      <c r="T1" s="13">
+        <v>3</v>
+      </c>
+      <c r="U1" s="13">
+        <v>3</v>
+      </c>
+      <c r="V1" s="13">
+        <v>3</v>
+      </c>
+      <c r="W1" s="13">
+        <v>3</v>
+      </c>
+      <c r="X1" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="24" customHeight="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>1</v>
+      </c>
+      <c r="O2" s="12">
+        <v>1</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>1</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1</v>
+      </c>
+      <c r="S2" s="12">
+        <v>1</v>
+      </c>
+      <c r="T2" s="12">
+        <v>1</v>
+      </c>
+      <c r="U2" s="12">
+        <v>1</v>
+      </c>
+      <c r="V2" s="12">
+        <v>1</v>
+      </c>
+      <c r="W2" s="12">
+        <v>1</v>
+      </c>
+      <c r="X2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="24" customHeight="1">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="24" customHeight="1">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>1</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="12">
+        <v>1</v>
+      </c>
+      <c r="U4" s="12">
+        <v>1</v>
+      </c>
+      <c r="V4" s="12">
+        <v>1</v>
+      </c>
+      <c r="W4" s="12">
+        <v>1</v>
+      </c>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="24" customHeight="1">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="12">
+        <v>1</v>
+      </c>
+      <c r="R5" s="12">
+        <v>1</v>
+      </c>
+      <c r="S5" s="12">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="12">
+        <v>1</v>
+      </c>
+      <c r="X5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="24" customHeight="1">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12">
+        <v>1</v>
+      </c>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="24" customHeight="1">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="12">
+        <v>1</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>1</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12">
+        <v>1</v>
+      </c>
+      <c r="U7" s="14"/>
+      <c r="V7" s="12">
+        <v>1</v>
+      </c>
+      <c r="W7" s="12">
+        <v>1</v>
+      </c>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="24" customHeight="1">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="12">
+        <v>1</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="12">
+        <v>1</v>
+      </c>
+      <c r="T8" s="12">
+        <v>1</v>
+      </c>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="12">
+        <v>1</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="24" customHeight="1">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
+        <v>6</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="12">
+        <v>1</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="12">
+        <v>1</v>
+      </c>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="24" customHeight="1">
+      <c r="A10" s="13">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1</v>
+      </c>
+      <c r="P10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>1</v>
+      </c>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="12">
+        <v>1</v>
+      </c>
+      <c r="U10" s="12">
+        <v>1</v>
+      </c>
+      <c r="V10" s="12">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12">
+        <v>1</v>
+      </c>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="24" customHeight="1">
+      <c r="A11" s="13">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="12">
+        <v>1</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1</v>
+      </c>
+      <c r="S11" s="12">
+        <v>1</v>
+      </c>
+      <c r="T11" s="12">
+        <v>1</v>
+      </c>
+      <c r="U11" s="12">
+        <v>1</v>
+      </c>
+      <c r="V11" s="12">
+        <v>1</v>
+      </c>
+      <c r="W11" s="12">
+        <v>1</v>
+      </c>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="24" customHeight="1">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="17">
+        <v>6</v>
+      </c>
+      <c r="L12" s="17">
+        <v>6</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="24" customHeight="1">
+      <c r="A13" s="12">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="17">
+        <v>6</v>
+      </c>
+      <c r="L13" s="17">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>1</v>
+      </c>
+      <c r="T13" s="12">
+        <v>1</v>
+      </c>
+      <c r="U13" s="12">
+        <v>1</v>
+      </c>
+      <c r="V13" s="12">
+        <v>1</v>
+      </c>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="24" customHeight="1">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="12">
+        <v>1</v>
+      </c>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="12">
+        <v>1</v>
+      </c>
+      <c r="W14" s="12">
+        <v>1</v>
+      </c>
+      <c r="X14" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="24" customHeight="1">
+      <c r="A15" s="12">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="12">
+        <v>1</v>
+      </c>
+      <c r="R15" s="14"/>
+      <c r="S15" s="7">
+        <v>2</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="24" customHeight="1">
+      <c r="A16" s="12">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>1</v>
+      </c>
+      <c r="R16" s="12">
+        <v>1</v>
+      </c>
+      <c r="S16" s="14"/>
+      <c r="T16" s="16">
+        <v>4</v>
+      </c>
+      <c r="U16" s="12">
+        <v>1</v>
+      </c>
+      <c r="V16" s="12">
+        <v>1</v>
+      </c>
+      <c r="W16" s="12">
+        <v>1</v>
+      </c>
+      <c r="X16" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="24" customHeight="1">
+      <c r="A17" s="12">
+        <v>1</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>3</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3</v>
+      </c>
+      <c r="H17" s="13">
+        <v>3</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
+      </c>
+      <c r="J17" s="13">
+        <v>3</v>
+      </c>
+      <c r="K17" s="13">
+        <v>3</v>
+      </c>
+      <c r="L17" s="13">
+        <v>3</v>
+      </c>
+      <c r="M17" s="12">
+        <v>1</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+      <c r="O17" s="12">
+        <v>1</v>
+      </c>
+      <c r="P17" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>3</v>
+      </c>
+      <c r="R17" s="12">
+        <v>1</v>
+      </c>
+      <c r="S17" s="12">
+        <v>1</v>
+      </c>
+      <c r="T17" s="12">
+        <v>1</v>
+      </c>
+      <c r="U17" s="12">
+        <v>1</v>
+      </c>
+      <c r="V17" s="13">
+        <v>3</v>
+      </c>
+      <c r="W17" s="13">
+        <v>3</v>
+      </c>
+      <c r="X17" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A18:AD30">
+    <cfRule type="cellIs" dxfId="87" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:AD30">
+    <cfRule type="cellIs" dxfId="86" priority="23" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="24" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="25" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="26" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="27" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="81" priority="28">
+      <formula>LEN(TRIM(A18))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="29" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="30" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="31" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="32" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FF76DC-6465-3347-84AB-81CD3EE151F8}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection sqref="A1:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24" customHeight="1">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <v>3</v>
+      </c>
+      <c r="O1">
+        <v>3</v>
+      </c>
+      <c r="P1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="24" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="24" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="24" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24" customHeight="1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="24" customHeight="1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24" customHeight="1">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="24" customHeight="1">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24" customHeight="1">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="24" customHeight="1">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="24" customHeight="1">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="24" customHeight="1">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A13:AD30 Q1:AD12">
+    <cfRule type="cellIs" dxfId="54" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:AD30 Q1:AD12">
+    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="48" priority="28">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="30" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:P12">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:P12">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17E3E2C-2B7E-1E46-B1E0-BFDA8AE311FA}">
+  <dimension ref="A1:AC17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection sqref="A1:AC17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="24" customHeight="1">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>1</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="24" customHeight="1">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="24" customHeight="1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="24" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="24" customHeight="1">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="24" customHeight="1">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="24" customHeight="1">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="24" customHeight="1">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="24" customHeight="1">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="24" customHeight="1">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="24" customHeight="1">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="24" customHeight="1">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="24" customHeight="1">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="24" customHeight="1">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="24" customHeight="1">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="24" customHeight="1">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="24" customHeight="1">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A18:AD30 AD1:AD17">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:K12">
+  <conditionalFormatting sqref="A18:AD30 AD1:AD17">
     <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
@@ -3547,7 +8548,7 @@
       <formula>5</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="15" priority="17">
-      <formula>LEN(TRIM(A11))=0</formula>
+      <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>4</formula>
@@ -3562,12 +8563,12 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:L10">
+  <conditionalFormatting sqref="A1:AC17">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:L10">
+  <conditionalFormatting sqref="A1:AC17">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
@@ -4034,39 +9035,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="164" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="158" priority="6">
+    <cfRule type="containsBlanks" dxfId="334" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4438,39 +9439,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="153" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="152" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="147" priority="6">
+    <cfRule type="containsBlanks" dxfId="323" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4857,39 +9858,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="142" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="141" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="136" priority="6">
+    <cfRule type="containsBlanks" dxfId="312" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5318,39 +10319,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="131" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="125" priority="6">
+    <cfRule type="containsBlanks" dxfId="301" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5783,39 +10784,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="120" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="119" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="114" priority="6">
+    <cfRule type="containsBlanks" dxfId="290" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6255,39 +11256,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="108" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="103" priority="6">
+    <cfRule type="containsBlanks" dxfId="279" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6727,39 +11728,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="98" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="92" priority="6">
+    <cfRule type="containsBlanks" dxfId="268" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7217,39 +12218,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="87" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="81" priority="6">
+    <cfRule type="containsBlanks" dxfId="257" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
